--- a/data/comparison_report.xlsx
+++ b/data/comparison_report.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>30.33</v>
+        <v>25.86</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>100</v>
@@ -531,7 +531,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>100</v>
@@ -547,19 +547,19 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>100</v>
+        <v>22.22</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +597,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>100</v>
@@ -616,10 +616,10 @@
         <v>100</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>100</v>
+        <v>79.17</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>100</v>
@@ -631,23 +631,45 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>Согласованность между моделями: насколько одинаково модели присваивают паттерны одним и тем же участникам (%)</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
           <t>Время выполнения анализа (секунды)</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>28.13</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>6.14</v>
+      <c r="B10" s="3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>3.78</v>
       </c>
     </row>
   </sheetData>

--- a/data/comparison_report.xlsx
+++ b/data/comparison_report.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Сравнение моделей" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Описание эксперимента" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +461,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>deepseek-chat</t>
+          <t>gemma-2-9b-it</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,13 +482,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>25.86</v>
+        <v>2.83</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3.23</v>
+        <v>50.69</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
@@ -509,7 +510,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>100</v>
@@ -531,7 +532,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>100</v>
@@ -543,23 +544,23 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Количество найденных категорий ролей</t>
+          <t>Количество найденных уникальных паттернов (из 7 возможных)</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>4</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -569,19 +570,19 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>22.22</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0</v>
+        <v>90.91</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>20</v>
+        <v>72.73</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>75</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +598,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>100</v>
@@ -616,10 +617,10 @@
         <v>100</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>79.17</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>100</v>
@@ -635,19 +636,19 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>36</v>
+        <v>18.18</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>19.23</v>
+        <v>66.67</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>20.83</v>
+        <v>74.06999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -657,19 +658,102 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>5.3</v>
+        <v>7.76</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>20.59</v>
+        <v>3.28</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.92</v>
+        <v>5.36</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>12.19</v>
+        <v>10.4</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>3.78</v>
+        <v>4.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Раздел</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1. Входные данные</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Исходные данные берутся из репозитория catboost/catboost через GitHub MCP Server. Период выборки: последние 120 дней. Фильтр: только pull request'ы с комментариями (comments:&gt;0). Максимальный размер выборки: 20 PR. Для каждого PR загружается: номер, автор, дата создания, issue-комментарии и review-комментарии.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2. Какие метрики считают модели</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Моделям передаются агрегированные данные по PR и участникам. Они должны посчитать две метрики: (1) среднее время до первого комментария (avg_first_comment_hours) — разница между created_at и first_comment_at по каждому PR, затем среднее; (2) классификация ролей участников по 7 паттернам активности (Пассивного потребления, Инициации обратной связи, Периферийного участия, Активного соисполнительства, Кураторства и управления, Лидерства и наставничества, Социального влияния) с указанием pattern и role для каждого участника.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3. Передаваемый промпт</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Промпт содержит: (1) список PR (номер, автор, время создания, время первого комментария, участники, количество комментариев); (2) статистику активности участников (prs_authored, prs_reviewed, comments_count, participation_rate, comment_rate) по данным MCP; (3) точный алгоритм классификации паттернов (последовательность правил по participation_rate и comment_rate, совпадающая с реализацией в role_classifier.classify_participant); (4) список допустимых паттернов (7 русских названий) и ролей (английские названия типа Lurkers, Bug reporter, Project steward и т.д.). Модель обязана вернуть JSON с avg_first_comment_hours, user_roles и role_distribution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4. Метрики сравнения моделей</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Для сравнения моделей считаются следующие метрики (по столбцам основной таблицы): (1) Ошибка расчета среднего времени первого комментария (%) — сравнение значения avg_first_comment_hours модели с эталоном, вычисленным детерминированно в Python (metrics_calculator.calculate_first_comment_time); (2) Корректность использования данных, полученных через MCP (%) — факт того, что модель вернула обе требуемые метрики (время и роли); (3) Полнота данных (%) — наличие обеих метрик без ошибок парсинга; (4) Количество найденных уникальных паттернов (из 7 возможных) — сколько разных категорий из фиксированного списка модель реально использовала; (5) Корректность классификации ролей (%) — доля участников, для которых pattern из ответа LLM совпадает с эталонным паттерном, рассчитанным по данным репозитория (через role_classifier.classify_participant); (6) Консистентность классификации (%) — наличие ненулевого и согласованного распределения ролей; (7) Соответствие паттернам (%) — доля категорий в role_distribution, которые совпадают или гибко соответствуют ожидаемым 7 паттернам; (8) Согласованность между моделями (%) — насколько одинаковые паттерны разные модели присваивают одним и тем же участникам (по нормализованным паттернам); (9) Время выполнения анализа (секунды) — время ответа модели на запрос.</t>
+        </is>
       </c>
     </row>
   </sheetData>
